--- a/TotalP.xlsx
+++ b/TotalP.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samlefkofsky/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samlefkofsky/OneDrive - Dartmouth College/Operations Research/19W/Anaconda Files/OR13/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F39B85F0-4192-9F4D-93FB-8D4DE92DCFA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="71" documentId="13_ncr:1_{F39B85F0-4192-9F4D-93FB-8D4DE92DCFA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{30FB9497-6C4F-8245-9B5B-6920D6A020F9}"/>
   <bookViews>
-    <workbookView xWindow="400" yWindow="1860" windowWidth="28040" windowHeight="16660" xr2:uid="{B2F4A437-251F-F848-A30B-BAEA4DB121F4}"/>
+    <workbookView xWindow="760" yWindow="480" windowWidth="28040" windowHeight="16660" xr2:uid="{B2F4A437-251F-F848-A30B-BAEA4DB121F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>New York</t>
   </si>
@@ -48,6 +48,12 @@
   </si>
   <si>
     <t>D.C.</t>
+  </si>
+  <si>
+    <t>Baltimore</t>
+  </si>
+  <si>
+    <t>Portland</t>
   </si>
 </sst>
 </file>
@@ -400,15 +406,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A91EEB8-D2B4-A74C-8846-F650290DD616}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -424,89 +430,171 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>600000</v>
+        <v>1750</v>
       </c>
       <c r="C2" s="1">
-        <v>600000</v>
+        <v>1750</v>
       </c>
       <c r="D2" s="1">
-        <v>100000</v>
+        <v>1000</v>
       </c>
       <c r="E2" s="1">
-        <v>800000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2000</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>600000</v>
+        <v>1750</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" s="1">
-        <v>400000</v>
+        <v>1500</v>
       </c>
       <c r="D3" s="1">
-        <v>300000</v>
+        <v>1250</v>
       </c>
       <c r="E3" s="1">
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1250</v>
+      </c>
+      <c r="F3" s="1">
+        <v>750</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>600000</v>
+        <v>1750</v>
       </c>
       <c r="B4" s="1">
-        <v>400000</v>
+        <v>1500</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>100000</v>
+        <v>1000</v>
       </c>
       <c r="E4" s="1">
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1250</v>
+      </c>
+      <c r="F4" s="1">
+        <v>750</v>
+      </c>
+      <c r="G4" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>100000</v>
+        <v>1000</v>
       </c>
       <c r="B5" s="1">
-        <v>300000</v>
+        <v>1250</v>
       </c>
       <c r="C5" s="1">
-        <v>100000</v>
+        <v>1000</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1000</v>
+      </c>
+      <c r="F5" s="1">
+        <v>500</v>
+      </c>
+      <c r="G5" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>800000</v>
+        <v>2000</v>
       </c>
       <c r="B6" s="1">
-        <v>300000</v>
+        <v>1250</v>
       </c>
       <c r="C6" s="1">
-        <v>300000</v>
+        <v>1250</v>
       </c>
       <c r="D6" s="1">
-        <v>100000</v>
+        <v>1000</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1250</v>
+      </c>
+      <c r="G6" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B7" s="1">
+        <v>750</v>
+      </c>
+      <c r="C7" s="1">
+        <v>750</v>
+      </c>
+      <c r="D7" s="1">
+        <v>500</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1250</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1250</v>
+      </c>
+      <c r="C8" s="1">
+        <v>500</v>
+      </c>
+      <c r="D8" s="1">
+        <v>500</v>
+      </c>
+      <c r="E8" s="1">
+        <v>250</v>
+      </c>
+      <c r="F8">
+        <v>500</v>
+      </c>
+      <c r="G8">
         <v>0</v>
       </c>
     </row>
